--- a/Results/IBA Mock/Mock 3.xlsx
+++ b/Results/IBA Mock/Mock 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\results giver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\IBA Mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E6C754-657C-4B09-9F98-EC6281B15C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F6F0E-4122-446B-9C1A-7E466F864994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I19" si="2">G2*1 + H2*($Z$6)</f>
+        <f t="shared" ref="I2:I25" si="2">G2*1 + H2*($Z$6)</f>
         <v>4.75</v>
       </c>
       <c r="J2">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W31" si="10">_xlfn.RANK.EQ(V2, $V$2:$V$1000, 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
         <v>25</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" s="11">
         <v>12</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <f>SUM(Y1:Y3)</f>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5" s="11">
         <v>14</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" s="11">
         <v>14.5</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R10" s="11">
         <v>9.5</v>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R18" s="11">
         <v>12.5</v>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I31" si="13">G20*1 + H20*(T24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M31" si="14">K20*1 + L20*(-0.25)</f>
+        <f t="shared" ref="M20:M31" si="13">K20*1 + L20*(-0.25)</f>
         <v>0</v>
       </c>
       <c r="N20">
@@ -2532,12 +2532,12 @@
         <v>6</v>
       </c>
       <c r="I21">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.25</v>
       </c>
       <c r="N21">
@@ -2555,11 +2555,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>27.142857142857142</v>
+        <v>25</v>
       </c>
       <c r="Q21">
         <f t="shared" si="8"/>
@@ -2573,7 +2573,7 @@
       <c r="U21" s="11"/>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="W21">
         <f t="shared" si="10"/>
@@ -2608,12 +2608,12 @@
         <v>4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="N22">
@@ -2631,15 +2631,15 @@
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>17.857142857142858</v>
+        <v>16.428571428571427</v>
       </c>
       <c r="Q22">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R22" s="11">
         <v>10.5</v>
@@ -2649,7 +2649,7 @@
       <c r="U22" s="11"/>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W22">
         <f t="shared" si="10"/>
@@ -2684,12 +2684,12 @@
         <v>7</v>
       </c>
       <c r="I23">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1.25</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="N23">
@@ -2707,15 +2707,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13.25</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>21.428571428571427</v>
+        <v>18.928571428571427</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R23" s="11">
         <v>9.5</v>
@@ -2725,11 +2725,11 @@
       <c r="U23" s="11"/>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>24.5</v>
+        <v>22.75</v>
       </c>
       <c r="W23">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="29.4" customHeight="1" thickBot="1">
@@ -2760,12 +2760,12 @@
         <v>7</v>
       </c>
       <c r="I24">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6.25</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2774,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
       <c r="N24">
@@ -2783,11 +2783,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>28.25</v>
+        <v>26.5</v>
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>40.357142857142861</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="Q24">
         <f t="shared" si="8"/>
@@ -2801,11 +2801,11 @@
       <c r="U24" s="11"/>
       <c r="V24">
         <f>O24+R24+S24+T24+U24</f>
-        <v>38.25</v>
+        <v>36.5</v>
       </c>
       <c r="W24">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="43.8" customHeight="1" thickBot="1">
@@ -2836,12 +2836,12 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6.5</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>28.000000000000004</v>
+        <v>26</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.75</v>
       </c>
       <c r="N25">
@@ -2859,11 +2859,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>24.75</v>
+        <v>24.25</v>
       </c>
       <c r="P25">
         <f t="shared" si="7"/>
-        <v>35.357142857142861</v>
+        <v>34.642857142857139</v>
       </c>
       <c r="Q25">
         <f t="shared" si="8"/>
@@ -2877,7 +2877,7 @@
       <c r="U25" s="11"/>
       <c r="V25">
         <f>O25+R25+S25+T25+U25</f>
-        <v>40.25</v>
+        <v>39.75</v>
       </c>
       <c r="W25">
         <f t="shared" si="10"/>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I20:I31" si="14">G26*1 + H26*(T30)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N26">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N28">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J29">
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J30">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31">
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N31">
